--- a/Joint Family Tree.xlsx
+++ b/Joint Family Tree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP891FS\Desktop\public_html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP891FS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39213CF0-3FA3-4771-B804-2BDB7ADB406F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F4E644-B995-4424-BE0C-F1CFE1842BC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="8484" tabRatio="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4164,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:NC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GS22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BO49" sqref="BO49"/>
+    <sheetView tabSelected="1" topLeftCell="DB22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DS46" sqref="DS46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
